--- a/notebook/Results_Unique_W1_2_15_24.xlsx
+++ b/notebook/Results_Unique_W1_2_15_24.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://desertpeak-my.sharepoint.com/personal/apoorva_saxena_sitio_com/Documents/Desktop/Project - Apoorva/Python/Scraping/RRC/notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2C69F5135F409EDEE54878D6425DCE3A8746BCAE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0025440-1E0F-4132-A587-BC05652564BC}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_2C69F5135F409EDEE54878D6425DCE3A8746BCAE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEE1B0FF-A6D0-49B6-AB66-1AE9EF095D98}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$70</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1407,7 +1410,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1463,7 +1466,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1479,6 +1482,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1766,10 +1773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,7 +1796,7 @@
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="112.140625" customWidth="1"/>
     <col min="16" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -1853,7 +1861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1906,7 +1914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1962,7 +1970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2018,7 +2026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2074,7 +2082,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -2130,7 +2138,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -2183,7 +2191,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -2236,7 +2244,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -2289,7 +2297,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -2398,7 +2406,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -2454,7 +2462,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -2510,7 +2518,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -2566,7 +2574,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -2622,7 +2630,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -2675,7 +2683,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>140</v>
       </c>
@@ -2728,7 +2736,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -2784,7 +2792,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -2840,7 +2848,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -2896,7 +2904,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -2955,7 +2963,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>173</v>
       </c>
@@ -3014,7 +3022,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -3073,7 +3081,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -3129,7 +3137,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>197</v>
       </c>
@@ -3185,7 +3193,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>204</v>
       </c>
@@ -3241,7 +3249,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>209</v>
       </c>
@@ -3297,7 +3305,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>215</v>
       </c>
@@ -3353,7 +3361,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>219</v>
       </c>
@@ -3409,7 +3417,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>228</v>
       </c>
@@ -3465,7 +3473,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>236</v>
       </c>
@@ -3521,7 +3529,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>242</v>
       </c>
@@ -3577,7 +3585,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>247</v>
       </c>
@@ -3633,7 +3641,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>253</v>
       </c>
@@ -3689,7 +3697,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>258</v>
       </c>
@@ -3745,7 +3753,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>264</v>
       </c>
@@ -3801,7 +3809,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>272</v>
       </c>
@@ -3857,7 +3865,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>277</v>
       </c>
@@ -3913,7 +3921,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>284</v>
       </c>
@@ -3969,7 +3977,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>288</v>
       </c>
@@ -4025,7 +4033,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>292</v>
       </c>
@@ -4081,7 +4089,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>297</v>
       </c>
@@ -4137,7 +4145,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>302</v>
       </c>
@@ -4193,7 +4201,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>306</v>
       </c>
@@ -4249,7 +4257,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>311</v>
       </c>
@@ -4305,7 +4313,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>320</v>
       </c>
@@ -4361,7 +4369,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>325</v>
       </c>
@@ -4417,7 +4425,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>331</v>
       </c>
@@ -4473,7 +4481,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>336</v>
       </c>
@@ -4529,7 +4537,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>346</v>
       </c>
@@ -4585,7 +4593,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>355</v>
       </c>
@@ -4641,7 +4649,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>362</v>
       </c>
@@ -4697,7 +4705,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>368</v>
       </c>
@@ -4750,7 +4758,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>376</v>
       </c>
@@ -4803,7 +4811,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>381</v>
       </c>
@@ -4856,7 +4864,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>385</v>
       </c>
@@ -4909,7 +4917,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>393</v>
       </c>
@@ -4962,7 +4970,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>396</v>
       </c>
@@ -5015,7 +5023,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>399</v>
       </c>
@@ -5068,7 +5076,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>402</v>
       </c>
@@ -5121,7 +5129,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>405</v>
       </c>
@@ -5174,7 +5182,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>409</v>
       </c>
@@ -5227,7 +5235,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>414</v>
       </c>
@@ -5280,7 +5288,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>418</v>
       </c>
@@ -5333,7 +5341,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>422</v>
       </c>
@@ -5386,7 +5394,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>431</v>
       </c>
@@ -5439,7 +5447,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>438</v>
       </c>
@@ -5495,7 +5503,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>445</v>
       </c>
@@ -5548,7 +5556,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>450</v>
       </c>
@@ -5604,7 +5612,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>456</v>
       </c>
@@ -5658,6 +5666,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S70" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="28732782"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>